--- a/IPC2024_base2010/imputacion/sinrecodificar_2_2024.xlsx
+++ b/IPC2024_base2010/imputacion/sinrecodificar_2_2024.xlsx
@@ -1411,7 +1411,7 @@
     <t>Macetas con suculentas</t>
   </si>
   <si>
-    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
+    <t>Alquiler de vehículo por día (kilometraje)</t>
   </si>
   <si>
     <t>Pants para educación física</t>
